--- a/zrap/expdata/1010.xlsx
+++ b/zrap/expdata/1010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/zrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169767B-41C9-1C4C-AD5C-41FB9A5C4249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79304B3E-248B-E544-86B0-BE3340A82F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>cms</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>syst_u(%)</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst_u</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
@@ -417,20 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="P2" sqref="P2:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1026" max="1028" width="10.5" customWidth="1"/>
+    <col min="3" max="17" width="10.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1029" max="1031" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,16 +480,25 @@
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -522,17 +540,29 @@
         <v>1.07</v>
       </c>
       <c r="N2" s="1">
+        <f>K2*J2/100</f>
+        <v>1.8873420000000001</v>
+      </c>
+      <c r="O2" s="1">
+        <f>L2*J2/100</f>
+        <v>0.76269300000000007</v>
+      </c>
+      <c r="P2" s="1">
+        <f>M2*J2/100</f>
+        <v>1.3831890000000002</v>
+      </c>
+      <c r="Q2" s="1">
         <f>J2*0.034</f>
         <v>4.3951800000000008</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -574,17 +604,29 @@
         <v>1.08</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N9" si="1">J3*0.034</f>
+        <f t="shared" ref="N3:N9" si="1">K3*J3/100</f>
+        <v>1.9027679999999998</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="2">L3*J3/100</f>
+        <v>0.6472</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="3">M3*J3/100</f>
+        <v>1.3979519999999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="4">J3*0.034</f>
         <v>4.4009600000000004</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -627,16 +669,28 @@
       </c>
       <c r="N4" s="1">
         <f t="shared" si="1"/>
+        <v>1.8871500000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59130700000000003</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1700330000000001</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="4"/>
         <v>4.2775400000000001</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -679,16 +733,28 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
+        <v>1.9035029999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53203500000000004</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1468309999999999</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="4"/>
         <v>4.0198200000000002</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -731,16 +797,28 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
+        <v>2.0860080000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71423100000000006</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4284620000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="4"/>
         <v>3.8545800000000003</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -783,16 +861,28 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" si="1"/>
+        <v>2.7051819999999998</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4420620000000002</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3051940000000002</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="4"/>
         <v>3.5788400000000005</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -835,16 +925,28 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="1"/>
+        <v>2.9866320000000002</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5120580000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4751860000000003</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
         <v>3.1341200000000002</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -887,114 +989,126 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="1"/>
+        <v>2.2472980000000002</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3327060000000004</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3024280000000008</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="4"/>
         <v>1.8149200000000003</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/zrap/expdata/1010.xlsx
+++ b/zrap/expdata/1010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/zrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79304B3E-248B-E544-86B0-BE3340A82F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EC9118-A351-6F47-B99F-ECFC159E6969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>cms</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>syst_c</t>
+  </si>
+  <si>
+    <t>correction</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P9"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +442,7 @@
     <col min="1029" max="1031" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -497,8 +500,11 @@
       <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -561,8 +567,11 @@
       <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -625,8 +634,11 @@
       <c r="S3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -689,8 +701,11 @@
       <c r="S4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -753,8 +768,11 @@
       <c r="S5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -817,8 +835,11 @@
       <c r="S6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -881,8 +902,11 @@
       <c r="S7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -945,8 +969,11 @@
       <c r="S8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1009,38 +1036,41 @@
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="S16" s="1"/>
